--- a/src/test/resources/TestData4.xlsx
+++ b/src/test/resources/TestData4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15615" windowHeight="6570" tabRatio="724" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="6435" tabRatio="724" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Shubham" sheetId="22" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <sheet name="TC08IT" sheetId="19" r:id="rId25"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:L19"/>
 </workbook>
 </file>
 
@@ -772,7 +773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1631,7 +1632,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1693,7 +1694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
